--- a/docs/excel/TShop.xlsx
+++ b/docs/excel/TShop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN-H5\JumpJump\docs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201F10AF-A5ED-49CC-B5D2-FF5197DF49C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30B115-D5AF-4442-A513-234F6447366F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/TShop.xlsx
+++ b/docs/excel/TShop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN-H5\JumpJump\docs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30B115-D5AF-4442-A513-234F6447366F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201F10AF-A5ED-49CC-B5D2-FF5197DF49C7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28980" yWindow="330" windowWidth="26175" windowHeight="11235" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
